--- a/Information Collection/LockdownDates.xlsx
+++ b/Information Collection/LockdownDates.xlsx
@@ -24,20 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>StartDate</t>
   </si>
   <si>
-    <t>End Date</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>China's 1st Lockdown</t>
-  </si>
-  <si>
     <t>UK's 1st Lockdown</t>
   </si>
   <si>
@@ -62,22 +56,13 @@
     <t>Third Wave (UK)</t>
   </si>
   <si>
-    <t>Italy Lockdown</t>
-  </si>
-  <si>
-    <t>Germany Lockdown</t>
-  </si>
-  <si>
-    <t>Spain Lockdown</t>
-  </si>
-  <si>
-    <t>France Lockdown</t>
-  </si>
-  <si>
     <t>Announcement of phase 3 trials by leading vaccine producers</t>
   </si>
   <si>
     <t>First Covid-19 Wave (UK)</t>
+  </si>
+  <si>
+    <t>EndDate</t>
   </si>
 </sst>
 </file>
@@ -131,7 +116,6 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -139,6 +123,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -158,15 +143,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C15" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C10" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:C10"/>
   <sortState ref="A2:C15">
     <sortCondition ref="A2:A15"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="StartDate" dataDxfId="1"/>
-    <tableColumn id="2" name="End Date" dataDxfId="0"/>
-    <tableColumn id="3" name="Description" dataDxfId="2"/>
+    <tableColumn id="1" name="StartDate" dataDxfId="2"/>
+    <tableColumn id="2" name="EndDate" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,165 +438,130 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>43836</v>
+        <v>43891</v>
       </c>
       <c r="B2" s="2">
-        <v>43836</v>
+        <v>43982</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>43891</v>
+        <v>43903</v>
       </c>
       <c r="B3" s="2">
-        <v>43982</v>
+        <v>44088</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>43903</v>
+        <v>43913</v>
       </c>
       <c r="B4" s="2">
-        <v>44088</v>
+        <v>44016</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>43907</v>
+        <v>44082</v>
       </c>
       <c r="B5" s="2">
-        <v>43907</v>
+        <v>44095</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>43908</v>
+        <v>44085</v>
       </c>
       <c r="B6" s="2">
-        <v>43908</v>
+        <v>44166</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>43910</v>
+        <v>44173</v>
       </c>
       <c r="B7" s="2">
-        <v>43910</v>
+        <v>44173</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>43913</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44016</v>
+        <v>44197</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44077</v>
+        <v>44201</v>
       </c>
       <c r="B9" s="2">
-        <v>44077</v>
+        <v>44283</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>44082</v>
+        <v>44140</v>
       </c>
       <c r="B10" s="2">
-        <v>44095</v>
+        <v>44167</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>44085</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44166</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>44173</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44173</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>44201</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44283</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>44140</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44167</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -652,26 +602,6 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
